--- a/RawData/FR_IGU_RawData_VPython.xlsx
+++ b/RawData/FR_IGU_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\02_MFA_IGU\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A312A034-DB01-4280-BF04-5D7C890487A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0B4EB5-6EF8-4BA9-AFAD-183362FA0ECF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="600" windowWidth="18525" windowHeight="15600" tabRatio="681" activeTab="3" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="1170" yWindow="600" windowWidth="18525" windowHeight="15600" tabRatio="681" firstSheet="6" activeTab="7" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="26" r:id="rId1"/>
@@ -3077,33 +3077,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{FE59B679-A1D6-4E71-B745-017139DBB512}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Start of the production</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{769D8BE8-1E7F-4110-A753-A1A5EC547DAB}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Start of the production</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -3144,33 +3117,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{097D0348-A7F2-4FF5-9438-43AF802B2857}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Start of the production</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{BE8F3D9D-0EE8-4EE3-A265-4785648DB449}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Start of the production</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B46" authorId="0" shapeId="0" xr:uid="{516FDB64-E6E6-437C-BE19-0F84123477E8}">
       <text>
         <r>
@@ -4565,7 +4511,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>year</t>
   </si>
@@ -4618,9 +4564,6 @@
     <t>sodium carbonate, kg/kg</t>
   </si>
   <si>
-    <t>fuel, GJ/t</t>
-  </si>
-  <si>
     <t>electricity, GJ/t</t>
   </si>
   <si>
@@ -4631,9 +4574,6 @@
   </si>
   <si>
     <t>Population, x1000</t>
-  </si>
-  <si>
-    <t>fuel, kg/kg</t>
   </si>
   <si>
     <t>electricity, kWh/kg</t>
@@ -4791,6 +4731,9 @@
   <si>
     <t>fuel oil, GJ/t</t>
   </si>
+  <si>
+    <t>fuel oil, kg/kg</t>
+  </si>
 </sst>
 </file>
 
@@ -4805,7 +4748,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4884,19 +4827,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5510,23 +5440,23 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="67"/>
       <c r="B3" s="72"/>
       <c r="C3" s="68" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="67"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="71" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -5535,10 +5465,10 @@
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="71" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -5547,10 +5477,10 @@
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="71" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -5559,13 +5489,13 @@
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="71" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -5574,10 +5504,10 @@
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="71" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5585,13 +5515,13 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="71" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -5599,10 +5529,10 @@
     </row>
     <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -5610,13 +5540,13 @@
     </row>
     <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="71" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -5626,13 +5556,13 @@
     </row>
     <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" s="69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -5642,13 +5572,13 @@
     </row>
     <row r="25" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="71" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D25" s="69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -5658,13 +5588,13 @@
     </row>
     <row r="27" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="71" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D27" s="70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="2:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -5674,13 +5604,13 @@
     </row>
     <row r="29" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B29" s="71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D29" s="70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -5690,10 +5620,10 @@
     </row>
     <row r="31" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="71" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" s="66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -5702,10 +5632,10 @@
     </row>
     <row r="33" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="71" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -5714,13 +5644,13 @@
     </row>
     <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="71" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C35" s="61" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D35" s="69" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -5728,13 +5658,13 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37" s="61" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -5744,10 +5674,10 @@
     </row>
     <row r="39" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B39" s="71" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39" s="66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -5756,13 +5686,13 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="71" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C41" s="61" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D41" s="70" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -6609,25 +6539,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I1" s="63" t="s">
         <v>9</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>3</v>
@@ -9014,7 +8944,7 @@
   <dimension ref="A1:BO88"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9033,7 +8963,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9052,12 +8982,7 @@
       <c r="A4" s="11">
         <v>1947</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -9069,7 +8994,6 @@
       <c r="A6" s="11">
         <v>1949</v>
       </c>
-      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -10027,11 +9951,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2629125-5F59-4D2B-B790-D44D45AA199C}">
   <dimension ref="A1:BM88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10050,7 +9974,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -10069,18 +9993,12 @@
       <c r="A4" s="11">
         <v>1947</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>1948</v>
       </c>
-      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -11040,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -11691,10 +11609,10 @@
   <dimension ref="A1:BF88"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11736,19 +11654,19 @@
       </c>
       <c r="J1" s="47"/>
       <c r="K1" s="5" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -13927,7 +13845,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13970,19 +13888,19 @@
       </c>
       <c r="J1" s="41"/>
       <c r="K1" s="5" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -16811,11 +16729,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621D97B3-9416-45F1-8919-6CB0D3F82407}">
   <dimension ref="A1:BR88"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16962,38 +16880,14 @@
       <c r="A8" s="15">
         <v>1951</v>
       </c>
-      <c r="B8" s="23">
-        <f>(prod!$F8*MatEnergy_PlateGlass!B8)+((prod!$H8+prod!$J8)*MatEnergy_WindowGlass!B8)</f>
-        <v>0.30338212842388862</v>
-      </c>
-      <c r="C8" s="23">
-        <f>(prod!$F8*MatEnergy_PlateGlass!C8)+((prod!$H8+prod!$J8)*MatEnergy_WindowGlass!C8)</f>
-        <v>9.7797036371800636E-2</v>
-      </c>
-      <c r="D8" s="23">
-        <f>(prod!$F8*MatEnergy_PlateGlass!D8)+((prod!$H8+prod!$J8)*MatEnergy_WindowGlass!D8)</f>
-        <v>0.65150606196677152</v>
-      </c>
-      <c r="E8" s="23">
-        <f>(prod!$F8*MatEnergy_PlateGlass!E8)+((prod!$H8+prod!$J8)*MatEnergy_WindowGlass!E8)</f>
-        <v>0.19948271216883701</v>
-      </c>
-      <c r="F8" s="23">
-        <f>(prod!$F8*MatEnergy_PlateGlass!F8)+((prod!$H8+prod!$J8)*MatEnergy_WindowGlass!F8)</f>
-        <v>3.5800628648405927E-2</v>
-      </c>
-      <c r="G8" s="23">
-        <f>(prod!$F8*MatEnergy_PlateGlass!G8)+((prod!$H8+prod!$J8)*MatEnergy_WindowGlass!G8)</f>
-        <v>7.4994162550516386E-2</v>
-      </c>
-      <c r="H8" s="23">
-        <f>(prod!$F8*MatEnergy_PlateGlass!H8)+((prod!$H8+prod!$J8)*MatEnergy_WindowGlass!H8)</f>
-        <v>0.13084687920969915</v>
-      </c>
-      <c r="I8" s="23">
-        <f>(prod!$F8*MatEnergy_PlateGlass!I8)+((prod!$H8+prod!$J8)*MatEnergy_WindowGlass!I8)</f>
-        <v>2.1748540637629099E-2</v>
-      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
       <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -17038,38 +16932,14 @@
       <c r="A10" s="15">
         <v>1953</v>
       </c>
-      <c r="B10" s="23">
-        <f>(prod!$F10*MatEnergy_PlateGlass!B10)+((prod!$H10+prod!$J10)*MatEnergy_WindowGlass!B10)</f>
-        <v>0.28613922859830665</v>
-      </c>
-      <c r="C10" s="23">
-        <f>(prod!$F10*MatEnergy_PlateGlass!C10)+((prod!$H10+prod!$J10)*MatEnergy_WindowGlass!C10)</f>
-        <v>0.11575540921919097</v>
-      </c>
-      <c r="D10" s="23">
-        <f>(prod!$F10*MatEnergy_PlateGlass!D10)+((prod!$H10+prod!$J10)*MatEnergy_WindowGlass!D10)</f>
-        <v>0.64374317968015049</v>
-      </c>
-      <c r="E10" s="23">
-        <f>(prod!$F10*MatEnergy_PlateGlass!E10)+((prod!$H10+prod!$J10)*MatEnergy_WindowGlass!E10)</f>
-        <v>0.19801599247412982</v>
-      </c>
-      <c r="F10" s="23">
-        <f>(prod!$F10*MatEnergy_PlateGlass!F10)+((prod!$H10+prod!$J10)*MatEnergy_WindowGlass!F10)</f>
-        <v>3.4405456255879582E-2</v>
-      </c>
-      <c r="G10" s="23">
-        <f>(prod!$F10*MatEnergy_PlateGlass!G10)+((prod!$H10+prod!$J10)*MatEnergy_WindowGlass!G10)</f>
-        <v>7.6568203198494833E-2</v>
-      </c>
-      <c r="H10" s="23">
-        <f>(prod!$F10*MatEnergy_PlateGlass!H10)+((prod!$H10+prod!$J10)*MatEnergy_WindowGlass!H10)</f>
-        <v>0.12923706491063028</v>
-      </c>
-      <c r="I10" s="23">
-        <f>(prod!$F10*MatEnergy_PlateGlass!I10)+((prod!$H10+prod!$J10)*MatEnergy_WindowGlass!I10)</f>
-        <v>2.2142050799623704E-2</v>
-      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
       <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -17114,38 +16984,14 @@
       <c r="A12" s="15">
         <v>1955</v>
       </c>
-      <c r="B12" s="23">
-        <f>(prod!$F12*MatEnergy_PlateGlass!B12)+((prod!$H12+prod!$J12)*MatEnergy_WindowGlass!B12)</f>
-        <v>0.30441391660271161</v>
-      </c>
-      <c r="C12" s="23">
-        <f>(prod!$F12*MatEnergy_PlateGlass!C12)+((prod!$H12+prod!$J12)*MatEnergy_WindowGlass!C12)</f>
-        <v>9.6722435405474538E-2</v>
-      </c>
-      <c r="D12" s="23">
-        <f>(prod!$F12*MatEnergy_PlateGlass!D12)+((prod!$H12+prod!$J12)*MatEnergy_WindowGlass!D12)</f>
-        <v>0.6519705807111793</v>
-      </c>
-      <c r="E12" s="23">
-        <f>(prod!$F12*MatEnergy_PlateGlass!E12)+((prod!$H12+prod!$J12)*MatEnergy_WindowGlass!E12)</f>
-        <v>0.1995704783832182</v>
-      </c>
-      <c r="F12" s="23">
-        <f>(prod!$F12*MatEnergy_PlateGlass!F12)+((prod!$H12+prod!$J12)*MatEnergy_WindowGlass!F12)</f>
-        <v>3.5884113584036828E-2</v>
-      </c>
-      <c r="G12" s="23">
-        <f>(prod!$F12*MatEnergy_PlateGlass!G12)+((prod!$H12+prod!$J12)*MatEnergy_WindowGlass!G12)</f>
-        <v>7.4899974418009704E-2</v>
-      </c>
-      <c r="H12" s="23">
-        <f>(prod!$F12*MatEnergy_PlateGlass!H12)+((prod!$H12+prod!$J12)*MatEnergy_WindowGlass!H12)</f>
-        <v>0.13094320798158093</v>
-      </c>
-      <c r="I12" s="23">
-        <f>(prod!$F12*MatEnergy_PlateGlass!I12)+((prod!$H12+prod!$J12)*MatEnergy_WindowGlass!I12)</f>
-        <v>2.1724993604502425E-2</v>
-      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
       <c r="K12" s="23"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -17190,38 +17036,14 @@
       <c r="A14" s="15">
         <v>1957</v>
       </c>
-      <c r="B14" s="23">
-        <f>(prod!$F14*MatEnergy_PlateGlass!B14)+((prod!$H14+prod!$J14)*MatEnergy_WindowGlass!B14)</f>
-        <v>0.2663244336569579</v>
-      </c>
-      <c r="C14" s="23">
-        <f>(prod!$F14*MatEnergy_PlateGlass!C14)+((prod!$H14+prod!$J14)*MatEnergy_WindowGlass!C14)</f>
-        <v>0.13639239482200646</v>
-      </c>
-      <c r="D14" s="23">
-        <f>(prod!$F14*MatEnergy_PlateGlass!D14)+((prod!$H14+prod!$J14)*MatEnergy_WindowGlass!D14)</f>
-        <v>0.63482241100323622</v>
-      </c>
-      <c r="E14" s="23">
-        <f>(prod!$F14*MatEnergy_PlateGlass!E14)+((prod!$H14+prod!$J14)*MatEnergy_WindowGlass!E14)</f>
-        <v>0.19633050161812299</v>
-      </c>
-      <c r="F14" s="23">
-        <f>(prod!$F14*MatEnergy_PlateGlass!F14)+((prod!$H14+prod!$J14)*MatEnergy_WindowGlass!F14)</f>
-        <v>3.2802184466019409E-2</v>
-      </c>
-      <c r="G14" s="23">
-        <f>(prod!$F14*MatEnergy_PlateGlass!G14)+((prod!$H14+prod!$J14)*MatEnergy_WindowGlass!G14)</f>
-        <v>7.8377022653721679E-2</v>
-      </c>
-      <c r="H14" s="23">
-        <f>(prod!$F14*MatEnergy_PlateGlass!H14)+((prod!$H14+prod!$J14)*MatEnergy_WindowGlass!H14)</f>
-        <v>0.12738713592233009</v>
-      </c>
-      <c r="I14" s="23">
-        <f>(prod!$F14*MatEnergy_PlateGlass!I14)+((prod!$H14+prod!$J14)*MatEnergy_WindowGlass!I14)</f>
-        <v>2.2594255663430419E-2</v>
-      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
       <c r="K14" s="23"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -17266,38 +17088,14 @@
       <c r="A16" s="15">
         <v>1959</v>
       </c>
-      <c r="B16" s="23">
-        <f>(prod!$F16*MatEnergy_PlateGlass!B16)+((prod!$H16+prod!$J16)*MatEnergy_WindowGlass!B16)</f>
-        <v>0.23878347372643402</v>
-      </c>
-      <c r="C16" s="23">
-        <f>(prod!$F16*MatEnergy_PlateGlass!C16)+((prod!$H16+prod!$J16)*MatEnergy_WindowGlass!C16)</f>
-        <v>0.16507613317288408</v>
-      </c>
-      <c r="D16" s="23">
-        <f>(prod!$F16*MatEnergy_PlateGlass!D16)+((prod!$H16+prod!$J16)*MatEnergy_WindowGlass!D16)</f>
-        <v>0.62242326514239876</v>
-      </c>
-      <c r="E16" s="23">
-        <f>(prod!$F16*MatEnergy_PlateGlass!E16)+((prod!$H16+prod!$J16)*MatEnergy_WindowGlass!E16)</f>
-        <v>0.19398780585639791</v>
-      </c>
-      <c r="F16" s="23">
-        <f>(prod!$F16*MatEnergy_PlateGlass!F16)+((prod!$H16+prod!$J16)*MatEnergy_WindowGlass!F16)</f>
-        <v>3.057376654632972E-2</v>
-      </c>
-      <c r="G16" s="23">
-        <f>(prod!$F16*MatEnergy_PlateGlass!G16)+((prod!$H16+prod!$J16)*MatEnergy_WindowGlass!G16)</f>
-        <v>8.0891135178499801E-2</v>
-      </c>
-      <c r="H16" s="23">
-        <f>(prod!$F16*MatEnergy_PlateGlass!H16)+((prod!$H16+prod!$J16)*MatEnergy_WindowGlass!H16)</f>
-        <v>0.12481588447653429</v>
-      </c>
-      <c r="I16" s="23">
-        <f>(prod!$F16*MatEnergy_PlateGlass!I16)+((prod!$H16+prod!$J16)*MatEnergy_WindowGlass!I16)</f>
-        <v>2.3222783794624949E-2</v>
-      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
       <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -17342,38 +17140,14 @@
       <c r="A18" s="15">
         <v>1961</v>
       </c>
-      <c r="B18" s="23">
-        <f>(prod!$F18*MatEnergy_PlateGlass!B18)+((prod!$H18+prod!$J18)*MatEnergy_WindowGlass!B18)</f>
-        <v>0.24741410129096325</v>
-      </c>
-      <c r="C18" s="23">
-        <f>(prod!$F18*MatEnergy_PlateGlass!C18)+((prod!$H18+prod!$J18)*MatEnergy_WindowGlass!C18)</f>
-        <v>0.15608738828202581</v>
-      </c>
-      <c r="D18" s="23">
-        <f>(prod!$F18*MatEnergy_PlateGlass!D18)+((prod!$H18+prod!$J18)*MatEnergy_WindowGlass!D18)</f>
-        <v>0.62630883813306859</v>
-      </c>
-      <c r="E18" s="23">
-        <f>(prod!$F18*MatEnergy_PlateGlass!E18)+((prod!$H18+prod!$J18)*MatEnergy_WindowGlass!E18)</f>
-        <v>0.19472194637537238</v>
-      </c>
-      <c r="F18" s="23">
-        <f>(prod!$F18*MatEnergy_PlateGlass!F18)+((prod!$H18+prod!$J18)*MatEnergy_WindowGlass!F18)</f>
-        <v>3.12720953326713E-2</v>
-      </c>
-      <c r="G18" s="23">
-        <f>(prod!$F18*MatEnergy_PlateGlass!G18)+((prod!$H18+prod!$J18)*MatEnergy_WindowGlass!G18)</f>
-        <v>8.0103277060575961E-2</v>
-      </c>
-      <c r="H18" s="23">
-        <f>(prod!$F18*MatEnergy_PlateGlass!H18)+((prod!$H18+prod!$J18)*MatEnergy_WindowGlass!H18)</f>
-        <v>0.12562164846077456</v>
-      </c>
-      <c r="I18" s="23">
-        <f>(prod!$F18*MatEnergy_PlateGlass!I18)+((prod!$H18+prod!$J18)*MatEnergy_WindowGlass!I18)</f>
-        <v>2.302581926514399E-2</v>
-      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
       <c r="K18" s="23"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -17418,38 +17192,14 @@
       <c r="A20" s="15">
         <v>1963</v>
       </c>
-      <c r="B20" s="23">
-        <f>(prod!$F20*MatEnergy_PlateGlass!B20)+((prod!$H20+prod!$J20)*MatEnergy_WindowGlass!B20)</f>
-        <v>0.23006188925081433</v>
-      </c>
-      <c r="C20" s="23">
-        <f>(prod!$F20*MatEnergy_PlateGlass!C20)+((prod!$H20+prod!$J20)*MatEnergy_WindowGlass!C20)</f>
-        <v>0.17415960912052117</v>
-      </c>
-      <c r="D20" s="23">
-        <f>(prod!$F20*MatEnergy_PlateGlass!D20)+((prod!$H20+prod!$J20)*MatEnergy_WindowGlass!D20)</f>
-        <v>0.61849674267100974</v>
-      </c>
-      <c r="E20" s="23">
-        <f>(prod!$F20*MatEnergy_PlateGlass!E20)+((prod!$H20+prod!$J20)*MatEnergy_WindowGlass!E20)</f>
-        <v>0.19324592833876222</v>
-      </c>
-      <c r="F20" s="23">
-        <f>(prod!$F20*MatEnergy_PlateGlass!F20)+((prod!$H20+prod!$J20)*MatEnergy_WindowGlass!F20)</f>
-        <v>2.9868078175895763E-2</v>
-      </c>
-      <c r="G20" s="23">
-        <f>(prod!$F20*MatEnergy_PlateGlass!G20)+((prod!$H20+prod!$J20)*MatEnergy_WindowGlass!G20)</f>
-        <v>8.1687296416938115E-2</v>
-      </c>
-      <c r="H20" s="23">
-        <f>(prod!$F20*MatEnergy_PlateGlass!H20)+((prod!$H20+prod!$J20)*MatEnergy_WindowGlass!H20)</f>
-        <v>0.12400162866449511</v>
-      </c>
-      <c r="I20" s="23">
-        <f>(prod!$F20*MatEnergy_PlateGlass!I20)+((prod!$H20+prod!$J20)*MatEnergy_WindowGlass!I20)</f>
-        <v>2.3421824104234525E-2</v>
-      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
       <c r="K20" s="23"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -17494,38 +17244,14 @@
       <c r="A22" s="15">
         <v>1965</v>
       </c>
-      <c r="B22" s="23">
-        <f>(prod!$F22*MatEnergy_PlateGlass!B22)+((prod!$H22+prod!$J22)*MatEnergy_WindowGlass!B22)</f>
-        <v>0.24235899255054988</v>
-      </c>
-      <c r="C22" s="23">
-        <f>(prod!$F22*MatEnergy_PlateGlass!C22)+((prod!$H22+prod!$J22)*MatEnergy_WindowGlass!C22)</f>
-        <v>0.16135225257183397</v>
-      </c>
-      <c r="D22" s="23">
-        <f>(prod!$F22*MatEnergy_PlateGlass!D22)+((prod!$H22+prod!$J22)*MatEnergy_WindowGlass!D22)</f>
-        <v>0.62403299042213556</v>
-      </c>
-      <c r="E22" s="23">
-        <f>(prod!$F22*MatEnergy_PlateGlass!E22)+((prod!$H22+prod!$J22)*MatEnergy_WindowGlass!E22)</f>
-        <v>0.19429194749911319</v>
-      </c>
-      <c r="F22" s="23">
-        <f>(prod!$F22*MatEnergy_PlateGlass!F22)+((prod!$H22+prod!$J22)*MatEnergy_WindowGlass!F22)</f>
-        <v>3.0863072011351543E-2</v>
-      </c>
-      <c r="G22" s="23">
-        <f>(prod!$F22*MatEnergy_PlateGlass!G22)+((prod!$H22+prod!$J22)*MatEnergy_WindowGlass!G22)</f>
-        <v>8.0564739269244429E-2</v>
-      </c>
-      <c r="H22" s="23">
-        <f>(prod!$F22*MatEnergy_PlateGlass!H22)+((prod!$H22+prod!$J22)*MatEnergy_WindowGlass!H22)</f>
-        <v>0.12514969847463642</v>
-      </c>
-      <c r="I22" s="23">
-        <f>(prod!$F22*MatEnergy_PlateGlass!I22)+((prod!$H22+prod!$J22)*MatEnergy_WindowGlass!I22)</f>
-        <v>2.3141184817311103E-2</v>
-      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
       <c r="K22" s="23"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -17570,38 +17296,14 @@
       <c r="A24" s="15">
         <v>1967</v>
       </c>
-      <c r="B24" s="23">
-        <f>(prod!$F24*MatEnergy_PlateGlass!B24)+((prod!$H24+prod!$J24)*MatEnergy_WindowGlass!B24)</f>
-        <v>0.24180917782026765</v>
-      </c>
-      <c r="C24" s="23">
-        <f>(prod!$F24*MatEnergy_PlateGlass!C24)+((prod!$H24+prod!$J24)*MatEnergy_WindowGlass!C24)</f>
-        <v>0.13993307839388147</v>
-      </c>
-      <c r="D24" s="23">
-        <f>(prod!$F24*MatEnergy_PlateGlass!D24)+((prod!$H24+prod!$J24)*MatEnergy_WindowGlass!D24)</f>
-        <v>0.58901414913957928</v>
-      </c>
-      <c r="E24" s="23">
-        <f>(prod!$F24*MatEnergy_PlateGlass!E24)+((prod!$H24+prod!$J24)*MatEnergy_WindowGlass!E24)</f>
-        <v>0.17881032504780114</v>
-      </c>
-      <c r="F24" s="23">
-        <f>(prod!$F24*MatEnergy_PlateGlass!F24)+((prod!$H24+prod!$J24)*MatEnergy_WindowGlass!F24)</f>
-        <v>1.3719694072657744E-2</v>
-      </c>
-      <c r="G24" s="23">
-        <f>(prod!$F24*MatEnergy_PlateGlass!G24)+((prod!$H24+prod!$J24)*MatEnergy_WindowGlass!G24)</f>
-        <v>6.4916634799235179E-2</v>
-      </c>
-      <c r="H24" s="23">
-        <f>(prod!$F24*MatEnergy_PlateGlass!H24)+((prod!$H24+prod!$J24)*MatEnergy_WindowGlass!H24)</f>
-        <v>0.12790898661567876</v>
-      </c>
-      <c r="I24" s="23">
-        <f>(prod!$F24*MatEnergy_PlateGlass!I24)+((prod!$H24+prod!$J24)*MatEnergy_WindowGlass!I24)</f>
-        <v>3.4575908221797319E-2</v>
-      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
       <c r="K24" s="23"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -17646,38 +17348,14 @@
       <c r="A26" s="15">
         <v>1969</v>
       </c>
-      <c r="B26" s="23">
-        <f>(prod!$F26*MatEnergy_PlateGlass!B26)+((prod!$H26+prod!$J26)*MatEnergy_WindowGlass!B26)</f>
-        <v>0.22401784902228286</v>
-      </c>
-      <c r="C26" s="23">
-        <f>(prod!$F26*MatEnergy_PlateGlass!C26)+((prod!$H26+prod!$J26)*MatEnergy_WindowGlass!C26)</f>
-        <v>0.15563130968622099</v>
-      </c>
-      <c r="D26" s="23">
-        <f>(prod!$F26*MatEnergy_PlateGlass!D26)+((prod!$H26+prod!$J26)*MatEnergy_WindowGlass!D26)</f>
-        <v>0.57652773988176442</v>
-      </c>
-      <c r="E26" s="23">
-        <f>(prod!$F26*MatEnergy_PlateGlass!E26)+((prod!$H26+prod!$J26)*MatEnergy_WindowGlass!E26)</f>
-        <v>0.17530979990904957</v>
-      </c>
-      <c r="F26" s="23">
-        <f>(prod!$F26*MatEnergy_PlateGlass!F26)+((prod!$H26+prod!$J26)*MatEnergy_WindowGlass!F26)</f>
-        <v>1.3683606184629379E-2</v>
-      </c>
-      <c r="G26" s="23">
-        <f>(prod!$F26*MatEnergy_PlateGlass!G26)+((prod!$H26+prod!$J26)*MatEnergy_WindowGlass!G26)</f>
-        <v>6.4519668030923155E-2</v>
-      </c>
-      <c r="H26" s="23">
-        <f>(prod!$F26*MatEnergy_PlateGlass!H26)+((prod!$H26+prod!$J26)*MatEnergy_WindowGlass!H26)</f>
-        <v>0.12660982264665757</v>
-      </c>
-      <c r="I26" s="23">
-        <f>(prod!$F26*MatEnergy_PlateGlass!I26)+((prod!$H26+prod!$J26)*MatEnergy_WindowGlass!I26)</f>
-        <v>3.6452478399272396E-2</v>
-      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
       <c r="K26" s="23"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -17722,38 +17400,14 @@
       <c r="A28" s="15">
         <v>1971</v>
       </c>
-      <c r="B28" s="23">
-        <f>(prod!$F28*MatEnergy_PlateGlass!B28)+((prod!$H28+prod!$J28)*MatEnergy_WindowGlass!B28)</f>
-        <v>0.25286726435064127</v>
-      </c>
-      <c r="C28" s="23">
-        <f>(prod!$F28*MatEnergy_PlateGlass!C28)+((prod!$H28+prod!$J28)*MatEnergy_WindowGlass!C28)</f>
-        <v>0.13017594322002243</v>
-      </c>
-      <c r="D28" s="23">
-        <f>(prod!$F28*MatEnergy_PlateGlass!D28)+((prod!$H28+prod!$J28)*MatEnergy_WindowGlass!D28)</f>
-        <v>0.5967749968870627</v>
-      </c>
-      <c r="E28" s="23">
-        <f>(prod!$F28*MatEnergy_PlateGlass!E28)+((prod!$H28+prod!$J28)*MatEnergy_WindowGlass!E28)</f>
-        <v>0.1809860540405927</v>
-      </c>
-      <c r="F28" s="23">
-        <f>(prod!$F28*MatEnergy_PlateGlass!F28)+((prod!$H28+prod!$J28)*MatEnergy_WindowGlass!F28)</f>
-        <v>1.3742124268459721E-2</v>
-      </c>
-      <c r="G28" s="23">
-        <f>(prod!$F28*MatEnergy_PlateGlass!G28)+((prod!$H28+prod!$J28)*MatEnergy_WindowGlass!G28)</f>
-        <v>6.5163366953056912E-2</v>
-      </c>
-      <c r="H28" s="23">
-        <f>(prod!$F28*MatEnergy_PlateGlass!H28)+((prod!$H28+prod!$J28)*MatEnergy_WindowGlass!H28)</f>
-        <v>0.12871647366454986</v>
-      </c>
-      <c r="I28" s="23">
-        <f>(prod!$F28*MatEnergy_PlateGlass!I28)+((prod!$H28+prod!$J28)*MatEnergy_WindowGlass!I28)</f>
-        <v>3.3409538040094632E-2</v>
-      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
       <c r="K28" s="23"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -17798,38 +17452,14 @@
       <c r="A30" s="15">
         <v>1973</v>
       </c>
-      <c r="B30" s="23">
-        <f>(prod!$F30*MatEnergy_PlateGlass!B30)+((prod!$H30+prod!$J30)*MatEnergy_WindowGlass!B$29)</f>
-        <v>0.21036243740393676</v>
-      </c>
-      <c r="C30" s="23">
-        <f>(prod!$F30*MatEnergy_PlateGlass!C30)+((prod!$H30+prod!$J30)*MatEnergy_WindowGlass!C$29)</f>
-        <v>0.16768020229064406</v>
-      </c>
-      <c r="D30" s="23">
-        <f>(prod!$F30*MatEnergy_PlateGlass!D30)+((prod!$H30+prod!$J30)*MatEnergy_WindowGlass!D$29)</f>
-        <v>0.56694402300560276</v>
-      </c>
-      <c r="E30" s="23">
-        <f>(prod!$F30*MatEnergy_PlateGlass!E30)+((prod!$H30+prod!$J30)*MatEnergy_WindowGlass!E$29)</f>
-        <v>0.17262303535128171</v>
-      </c>
-      <c r="F30" s="23">
-        <f>(prod!$F30*MatEnergy_PlateGlass!F30)+((prod!$H30+prod!$J30)*MatEnergy_WindowGlass!F$29)</f>
-        <v>1.3655907580941051E-2</v>
-      </c>
-      <c r="G30" s="23">
-        <f>(prod!$F30*MatEnergy_PlateGlass!G30)+((prod!$H30+prod!$J30)*MatEnergy_WindowGlass!G$29)</f>
-        <v>6.4214983390351532E-2</v>
-      </c>
-      <c r="H30" s="23">
-        <f>(prod!$F30*MatEnergy_PlateGlass!H30)+((prod!$H30+prod!$J30)*MatEnergy_WindowGlass!H$29)</f>
-        <v>0.12561267291387773</v>
-      </c>
-      <c r="I30" s="23">
-        <f>(prod!$F30*MatEnergy_PlateGlass!I30)+((prod!$H30+prod!$J30)*MatEnergy_WindowGlass!I$29)</f>
-        <v>3.7892805791065499E-2</v>
-      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
       <c r="K30" s="23"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -17874,76 +17504,28 @@
       <c r="A32" s="15">
         <v>1975</v>
       </c>
-      <c r="B32" s="23">
-        <f>(prod!$F32*MatEnergy_PlateGlass!B32)+((prod!$H32+prod!$J32)*MatEnergy_WindowGlass!B$29)</f>
-        <v>0.21804830917874396</v>
-      </c>
-      <c r="C32" s="23">
-        <f>(prod!$F32*MatEnergy_PlateGlass!C32)+((prod!$H32+prod!$J32)*MatEnergy_WindowGlass!C$29)</f>
-        <v>0.16089855072463768</v>
-      </c>
-      <c r="D32" s="23">
-        <f>(prod!$F32*MatEnergy_PlateGlass!D32)+((prod!$H32+prod!$J32)*MatEnergy_WindowGlass!D$29)</f>
-        <v>0.57233816425120776</v>
-      </c>
-      <c r="E32" s="23">
-        <f>(prod!$F32*MatEnergy_PlateGlass!E32)+((prod!$H32+prod!$J32)*MatEnergy_WindowGlass!E$29)</f>
-        <v>0.1741352657004831</v>
-      </c>
-      <c r="F32" s="23">
-        <f>(prod!$F32*MatEnergy_PlateGlass!F32)+((prod!$H32+prod!$J32)*MatEnergy_WindowGlass!F$29)</f>
-        <v>1.3671497584541066E-2</v>
-      </c>
-      <c r="G32" s="23">
-        <f>(prod!$F32*MatEnergy_PlateGlass!G32)+((prod!$H32+prod!$J32)*MatEnergy_WindowGlass!G$29)</f>
-        <v>6.4386473429951699E-2</v>
-      </c>
-      <c r="H32" s="23">
-        <f>(prod!$F32*MatEnergy_PlateGlass!H32)+((prod!$H32+prod!$J32)*MatEnergy_WindowGlass!H$29)</f>
-        <v>0.12617391304347825</v>
-      </c>
-      <c r="I32" s="23">
-        <f>(prod!$F32*MatEnergy_PlateGlass!I32)+((prod!$H32+prod!$J32)*MatEnergy_WindowGlass!I$29)</f>
-        <v>3.7082125603864736E-2</v>
-      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
       <c r="K32" s="23"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>1976</v>
       </c>
-      <c r="B33" s="23">
-        <f>(prod!$F33*MatEnergy_PlateGlass!B33)+((prod!$H33+prod!$J33)*MatEnergy_WindowGlass!B$29)</f>
-        <v>0.2032412054912055</v>
-      </c>
-      <c r="C33" s="23">
-        <f>(prod!$F33*MatEnergy_PlateGlass!C33)+((prod!$H33+prod!$J33)*MatEnergy_WindowGlass!C$29)</f>
-        <v>0.17396364221364219</v>
-      </c>
-      <c r="D33" s="23">
-        <f>(prod!$F33*MatEnergy_PlateGlass!D33)+((prod!$H33+prod!$J33)*MatEnergy_WindowGlass!D$29)</f>
-        <v>0.56194616044616041</v>
-      </c>
-      <c r="E33" s="23">
-        <f>(prod!$F33*MatEnergy_PlateGlass!E33)+((prod!$H33+prod!$J33)*MatEnergy_WindowGlass!E$29)</f>
-        <v>0.1712219004719005</v>
-      </c>
-      <c r="F33" s="23">
-        <f>(prod!$F33*MatEnergy_PlateGlass!F33)+((prod!$H33+prod!$J33)*MatEnergy_WindowGlass!F$29)</f>
-        <v>1.3641462891462893E-2</v>
-      </c>
-      <c r="G33" s="23">
-        <f>(prod!$F33*MatEnergy_PlateGlass!G33)+((prod!$H33+prod!$J33)*MatEnergy_WindowGlass!G$29)</f>
-        <v>6.4056091806091814E-2</v>
-      </c>
-      <c r="H33" s="23">
-        <f>(prod!$F33*MatEnergy_PlateGlass!H33)+((prod!$H33+prod!$J33)*MatEnergy_WindowGlass!H$29)</f>
-        <v>0.12509266409266409</v>
-      </c>
-      <c r="I33" s="23">
-        <f>(prod!$F33*MatEnergy_PlateGlass!I33)+((prod!$H33+prod!$J33)*MatEnergy_WindowGlass!I$29)</f>
-        <v>3.8643929643929639E-2</v>
-      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
       <c r="K33" s="23"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -19033,7 +18615,7 @@
   <dimension ref="A1:BM88"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
@@ -19051,13 +18633,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C1" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="64" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="64" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/RawData/FR_IGU_RawData_VPython.xlsx
+++ b/RawData/FR_IGU_RawData_VPython.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\02_MFA_IGU\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7059E933-BA71-4560-91BB-31F933795E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DE5AD8-7C91-4A89-A2D8-1FDC747CA4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="600" windowWidth="16665" windowHeight="15600" tabRatio="681" activeTab="3" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="3120" yWindow="600" windowWidth="16665" windowHeight="15600" tabRatio="681" activeTab="1" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="26" r:id="rId1"/>
-    <sheet name="prod" sheetId="15" r:id="rId2"/>
-    <sheet name="import" sheetId="14" r:id="rId3"/>
-    <sheet name="export" sheetId="12" r:id="rId4"/>
-    <sheet name="Population" sheetId="23" r:id="rId5"/>
-    <sheet name="thickness" sheetId="27" r:id="rId6"/>
-    <sheet name="RawMat_Intensity" sheetId="21" r:id="rId7"/>
-    <sheet name="Energy_Intensity" sheetId="22" r:id="rId8"/>
-    <sheet name="emissions" sheetId="13" r:id="rId9"/>
+    <sheet name="consumption" sheetId="28" r:id="rId2"/>
+    <sheet name="prod" sheetId="15" r:id="rId3"/>
+    <sheet name="import" sheetId="14" r:id="rId4"/>
+    <sheet name="export" sheetId="12" r:id="rId5"/>
+    <sheet name="Population" sheetId="23" r:id="rId6"/>
+    <sheet name="thickness" sheetId="27" r:id="rId7"/>
+    <sheet name="RawMat_Intensity" sheetId="21" r:id="rId8"/>
+    <sheet name="Energy_Intensity" sheetId="22" r:id="rId9"/>
+    <sheet name="emissions" sheetId="13" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,6 +45,83 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>jean</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{0820FAA0-DF58-4FD7-B6F7-8684801D8776}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unless otherwise indicated in a note attached to the cell, all data collected in this column comes from:
+(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{0E3EEF93-8C66-4716-817B-7C22ECB9453B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Production of the first insulated glazing
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{6535A4DE-E363-4BD3-808F-D86032240335}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>100.000 insulating glass units intalled in Europe in the year 1955. We suppose an average window area of 1.5x1.5m². It represents 2% of the annual production of the year 1970. We generalise this ratio to France and Belgium.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{5857810F-1844-49C9-89E7-B3575F335219}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The glass industry in the European Economic Community, Commission of the European Communities, 1984, (p. 122) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{DED8F149-B644-4126-90A5-1677C2BDDB83}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Annuaire statistique de la France, 1987, Institut National de la Statistique et des Études Économiques, Paris, 1988. p. 591</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>jean</author>
@@ -617,7 +695,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>jean</author>
@@ -643,7 +721,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>jean</author>
@@ -734,7 +812,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>jean</author>
@@ -758,7 +836,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>jean</author>
@@ -778,7 +856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E2563751-D776-4489-BF71-E91D854AC7DE}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{01A94CA4-C96D-42AE-8B2A-1AE34BF5F30E}">
       <text>
         <r>
           <rPr>
@@ -787,11 +865,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(Compagnie de Saint-Gobain, 1953)</t>
+          <t>Average: 
+(Van de Voorde, 2016; Compagnie de Saint-Gobain, 1953)</t>
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{E49A4380-3F4A-445E-834F-D6481144AFDE}">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{8A6BEC0E-BB01-4AC3-8379-7011B4A3D05B}">
       <text>
         <r>
           <rPr>
@@ -800,7 +879,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(Compagnie de Saint-Gobain, 1953)</t>
+          <t>Average: 
+(Van de Voorde, 2016; Compagnie de Saint-Gobain, 1953)</t>
         </r>
       </text>
     </comment>
@@ -813,31 +893,15 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>2% = triple glazing
+          <t>(Hestin et al., 2016)
+2% = triple glazing
 98% = double glazing
 80% = Residential
 20% = Non-residential</t>
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{3A5EE0E8-3345-417F-9260-E719AA35D8B2}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(Leysens, 2010)
-5% = triple glazing
-95% = double glazing
-80% = Residential
-20% = Non-residential</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B76" authorId="0" shapeId="0" xr:uid="{2AA4EF96-5E85-4696-9B42-DA7282EBEED7}">
+    <comment ref="B76" authorId="0" shapeId="0" xr:uid="{2C89ABA6-565A-47E0-A65D-8D7CD4093C93}">
       <text>
         <r>
           <rPr>
@@ -854,7 +918,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>jean</author>
@@ -968,7 +1032,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>jean</author>
@@ -1030,7 +1094,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>jean</author>
@@ -1054,7 +1118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
   <si>
     <t>year</t>
   </si>
@@ -1419,7 +1483,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1588,6 +1652,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3112,15 +3182,804 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984B49BA-6D54-42C1-84EE-7F8663080B50}">
-  <dimension ref="A1:BE88"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AADF96-AA57-46CE-950B-FAE3AC3D5FD3}">
+  <dimension ref="A1:BB88"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I59" sqref="I59"/>
+      <selection pane="bottomRight" activeCell="L41" sqref="L41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1947</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>1950</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2950</v>
+      </c>
+      <c r="D7" s="53"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>1951</v>
+      </c>
+      <c r="D8" s="53"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>1952</v>
+      </c>
+      <c r="D9" s="53"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>1953</v>
+      </c>
+      <c r="D10" s="53"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>1954</v>
+      </c>
+      <c r="D11" s="53"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>1955</v>
+      </c>
+      <c r="D12" s="53"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>1956</v>
+      </c>
+      <c r="D13" s="53"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>1957</v>
+      </c>
+      <c r="D14" s="53"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>1958</v>
+      </c>
+      <c r="D15" s="53"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1959</v>
+      </c>
+      <c r="D16" s="53"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>1960</v>
+      </c>
+      <c r="B17" s="53">
+        <v>2055</v>
+      </c>
+      <c r="D17" s="53"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>1961</v>
+      </c>
+      <c r="B18" s="53"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>1962</v>
+      </c>
+      <c r="B19" s="53"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>1963</v>
+      </c>
+      <c r="B20" s="53"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>1964</v>
+      </c>
+      <c r="B21" s="53"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>1965</v>
+      </c>
+      <c r="B22" s="53">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>1966</v>
+      </c>
+      <c r="B23" s="53"/>
+      <c r="Z23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>1967</v>
+      </c>
+      <c r="B24" s="53"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>1968</v>
+      </c>
+      <c r="B25" s="53"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>1969</v>
+      </c>
+      <c r="B26" s="53"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>1970</v>
+      </c>
+      <c r="B27" s="53">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>1971</v>
+      </c>
+      <c r="B28" s="53"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>1972</v>
+      </c>
+      <c r="B29" s="53"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>1973</v>
+      </c>
+      <c r="B30" s="53"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>1974</v>
+      </c>
+      <c r="B31" s="53"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>1975</v>
+      </c>
+      <c r="B32" s="53">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>1976</v>
+      </c>
+      <c r="B33" s="53"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>1977</v>
+      </c>
+      <c r="B34" s="53"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>1978</v>
+      </c>
+      <c r="B35" s="53"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>1979</v>
+      </c>
+      <c r="B36" s="53"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>1980</v>
+      </c>
+      <c r="B37" s="53">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>1981</v>
+      </c>
+      <c r="B38" s="53"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>1982</v>
+      </c>
+      <c r="B39" s="53"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>1983</v>
+      </c>
+      <c r="B40" s="53"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>1984</v>
+      </c>
+      <c r="B41" s="53"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>1985</v>
+      </c>
+      <c r="B42" s="53">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>1986</v>
+      </c>
+      <c r="B43" s="53"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>1987</v>
+      </c>
+      <c r="B44" s="53"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>1988</v>
+      </c>
+      <c r="B45" s="53"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>1989</v>
+      </c>
+      <c r="B46" s="53"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>1990</v>
+      </c>
+      <c r="B47" s="53">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>1991</v>
+      </c>
+      <c r="B48" s="53"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>1992</v>
+      </c>
+      <c r="B49" s="53"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>1993</v>
+      </c>
+      <c r="B50" s="53"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>1994</v>
+      </c>
+      <c r="B51" s="53"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>1995</v>
+      </c>
+      <c r="B52" s="53">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>1996</v>
+      </c>
+      <c r="B53" s="53"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>1997</v>
+      </c>
+      <c r="B54" s="53"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>1998</v>
+      </c>
+      <c r="B55" s="53"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>1999</v>
+      </c>
+      <c r="B56" s="53"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>2000</v>
+      </c>
+      <c r="B57" s="53">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>2001</v>
+      </c>
+      <c r="B58" s="53"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>2002</v>
+      </c>
+      <c r="B59" s="53"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>2003</v>
+      </c>
+      <c r="B60" s="53"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>2004</v>
+      </c>
+      <c r="B61" s="53"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>2005</v>
+      </c>
+      <c r="B62" s="53">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>2006</v>
+      </c>
+      <c r="B63" s="53"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>2007</v>
+      </c>
+      <c r="B64" s="1">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="65" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B67" s="1">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="72" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B72" s="1">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="75" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B75" s="1">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="77" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="78" spans="1:54" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+      <c r="AS78" s="1"/>
+      <c r="AT78" s="1"/>
+      <c r="AU78" s="1"/>
+      <c r="AV78" s="1"/>
+      <c r="AW78" s="1"/>
+      <c r="AX78" s="1"/>
+      <c r="AY78" s="1"/>
+      <c r="AZ78" s="1"/>
+      <c r="BA78" s="1"/>
+      <c r="BB78" s="1"/>
+    </row>
+    <row r="79" spans="1:54" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="1"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="1"/>
+      <c r="AT79" s="1"/>
+      <c r="AU79" s="1"/>
+      <c r="AV79" s="1"/>
+      <c r="AW79" s="1"/>
+      <c r="AX79" s="1"/>
+      <c r="AY79" s="1"/>
+      <c r="AZ79" s="1"/>
+      <c r="BA79" s="1"/>
+      <c r="BB79" s="1"/>
+    </row>
+    <row r="80" spans="1:54" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="1"/>
+      <c r="AO80" s="1"/>
+      <c r="AP80" s="1"/>
+      <c r="AQ80" s="1"/>
+      <c r="AR80" s="1"/>
+      <c r="AS80" s="1"/>
+      <c r="AT80" s="1"/>
+      <c r="AU80" s="1"/>
+      <c r="AV80" s="1"/>
+      <c r="AW80" s="1"/>
+      <c r="AX80" s="1"/>
+      <c r="AY80" s="1"/>
+      <c r="AZ80" s="1"/>
+      <c r="BA80" s="1"/>
+      <c r="BB80" s="1"/>
+    </row>
+    <row r="87" spans="1:54" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="1"/>
+      <c r="AM87" s="1"/>
+      <c r="AN87" s="1"/>
+      <c r="AO87" s="1"/>
+      <c r="AP87" s="1"/>
+      <c r="AQ87" s="1"/>
+      <c r="AR87" s="1"/>
+      <c r="AS87" s="1"/>
+      <c r="AT87" s="1"/>
+      <c r="AU87" s="1"/>
+      <c r="AV87" s="1"/>
+      <c r="AW87" s="1"/>
+      <c r="AX87" s="1"/>
+      <c r="AY87" s="1"/>
+      <c r="AZ87" s="1"/>
+      <c r="BA87" s="1"/>
+      <c r="BB87" s="1"/>
+    </row>
+    <row r="88" spans="1:54" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+      <c r="AH88" s="1"/>
+      <c r="AI88" s="1"/>
+      <c r="AJ88" s="1"/>
+      <c r="AK88" s="1"/>
+      <c r="AL88" s="1"/>
+      <c r="AM88" s="1"/>
+      <c r="AN88" s="1"/>
+      <c r="AO88" s="1"/>
+      <c r="AP88" s="1"/>
+      <c r="AQ88" s="1"/>
+      <c r="AR88" s="1"/>
+      <c r="AS88" s="1"/>
+      <c r="AT88" s="1"/>
+      <c r="AU88" s="1"/>
+      <c r="AV88" s="1"/>
+      <c r="AW88" s="1"/>
+      <c r="AX88" s="1"/>
+      <c r="AY88" s="1"/>
+      <c r="AZ88" s="1"/>
+      <c r="BA88" s="1"/>
+      <c r="BB88" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3E1651-4168-4386-B54D-E57E707E6AF2}">
+  <dimension ref="A1:BE88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3134,7 +3993,7 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3204,7 +4063,7 @@
       </c>
       <c r="B12" s="29">
         <f>0.02*B27</f>
-        <v>69.5</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3229,470 +4088,409 @@
       </c>
       <c r="B16" s="8"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>1960</v>
       </c>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>1961</v>
       </c>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>1962</v>
       </c>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>1963</v>
       </c>
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>1964</v>
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>1965</v>
       </c>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>1966</v>
       </c>
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>1967</v>
       </c>
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>1968</v>
       </c>
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>1969</v>
       </c>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>1970</v>
       </c>
       <c r="B27" s="8">
-        <v>3475</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3225</v>
+      </c>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>1971</v>
       </c>
-      <c r="B28" s="8">
-        <v>3405</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>1972</v>
       </c>
-      <c r="B29" s="8">
-        <v>3440</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>1973</v>
       </c>
-      <c r="B30" s="8">
-        <v>3580</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>1974</v>
       </c>
-      <c r="B31" s="8">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>1975</v>
       </c>
-      <c r="B32" s="8">
-        <v>4165</v>
-      </c>
+      <c r="B32" s="8"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>1976</v>
       </c>
-      <c r="B33" s="8">
-        <v>4505</v>
-      </c>
+      <c r="B33" s="8"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>1977</v>
       </c>
-      <c r="B34" s="8">
-        <v>4807</v>
-      </c>
+      <c r="B34" s="8"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>1978</v>
       </c>
       <c r="B35" s="8">
-        <v>4830</v>
-      </c>
+        <v>4600</v>
+      </c>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>1979</v>
       </c>
       <c r="B36" s="8"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>1980</v>
       </c>
       <c r="B37" s="8"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>1981</v>
       </c>
       <c r="B38" s="8"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>1982</v>
       </c>
       <c r="B39" s="7">
-        <v>4184</v>
-      </c>
+        <v>7500</v>
+      </c>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>1983</v>
       </c>
-      <c r="B40" s="7">
-        <v>4850</v>
-      </c>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>1984</v>
       </c>
-      <c r="B41" s="7">
-        <v>4429</v>
-      </c>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>1985</v>
       </c>
-      <c r="B42" s="7">
-        <v>4314</v>
-      </c>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>1986</v>
       </c>
-      <c r="B43" s="7">
-        <v>5072</v>
-      </c>
+      <c r="B43" s="6"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>1987</v>
       </c>
-      <c r="B44" s="7">
-        <v>6019</v>
-      </c>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>1988</v>
       </c>
-      <c r="B45" s="7">
-        <v>6660</v>
-      </c>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>1989</v>
       </c>
-      <c r="B46" s="7">
-        <v>6760</v>
-      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>1990</v>
       </c>
-      <c r="B47" s="7">
-        <v>7062</v>
-      </c>
+      <c r="B47" s="6"/>
       <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>1991</v>
       </c>
-      <c r="B48" s="7">
-        <v>8047</v>
-      </c>
+      <c r="B48" s="6"/>
       <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>1992</v>
       </c>
-      <c r="B49" s="7">
-        <v>7945</v>
-      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>1993</v>
       </c>
-      <c r="B50" s="7">
-        <v>8091</v>
-      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>1994</v>
       </c>
-      <c r="B51" s="7">
-        <v>8998</v>
-      </c>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>1995</v>
       </c>
-      <c r="B52" s="7">
-        <v>9563</v>
-      </c>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>1996</v>
       </c>
-      <c r="B53" s="7">
-        <v>9768</v>
-      </c>
+      <c r="B53" s="6"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>1997</v>
       </c>
-      <c r="B54" s="8">
-        <v>10243</v>
-      </c>
+      <c r="B54" s="6"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>1998</v>
       </c>
-      <c r="B55" s="8">
-        <v>10926</v>
-      </c>
+      <c r="B55" s="6"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>1999</v>
       </c>
-      <c r="B56" s="8">
-        <v>12257</v>
-      </c>
+      <c r="B56" s="6"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>2000</v>
       </c>
-      <c r="B57" s="8">
-        <v>13383</v>
-      </c>
+      <c r="B57" s="6"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>2001</v>
       </c>
-      <c r="B58" s="8">
-        <v>14400</v>
-      </c>
+      <c r="B58" s="6"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>2002</v>
       </c>
-      <c r="B59" s="8">
-        <v>14281</v>
-      </c>
+      <c r="B59" s="6"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>2003</v>
       </c>
-      <c r="B60" s="8">
-        <v>14465</v>
-      </c>
+      <c r="B60" s="6"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>2004</v>
       </c>
-      <c r="B61" s="8">
-        <v>15296</v>
-      </c>
+      <c r="B61" s="6"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>2005</v>
       </c>
-      <c r="B62" s="8">
-        <v>15318.19</v>
-      </c>
+      <c r="B62" s="6"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>2006</v>
       </c>
-      <c r="B63" s="8">
-        <v>16158</v>
-      </c>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>2007</v>
       </c>
-      <c r="B64" s="8">
-        <v>16730</v>
-      </c>
+      <c r="B64" s="6"/>
     </row>
     <row r="65" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>2008</v>
       </c>
-      <c r="B65" s="8">
-        <v>16382.708000000001</v>
-      </c>
+      <c r="B65" s="6"/>
     </row>
     <row r="66" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>2009</v>
       </c>
-      <c r="B66" s="8">
-        <v>15460.977999999999</v>
-      </c>
+      <c r="B66" s="6"/>
     </row>
     <row r="67" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>2010</v>
       </c>
-      <c r="B67" s="8">
-        <v>16209.016</v>
-      </c>
+      <c r="B67" s="6"/>
     </row>
     <row r="68" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>2011</v>
       </c>
-      <c r="B68" s="8">
-        <v>16997.707999999999</v>
-      </c>
+      <c r="B68" s="6"/>
     </row>
     <row r="69" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>2012</v>
       </c>
-      <c r="B69" s="8">
-        <v>16424.399000000001</v>
-      </c>
+      <c r="B69" s="6"/>
     </row>
     <row r="70" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>2013</v>
       </c>
-      <c r="B70" s="8">
-        <v>15763.493</v>
-      </c>
+      <c r="B70" s="6"/>
     </row>
     <row r="71" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>2014</v>
       </c>
-      <c r="B71" s="8">
-        <v>15000.332</v>
-      </c>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>2015</v>
       </c>
-      <c r="B72" s="8">
-        <v>15062.705</v>
-      </c>
+      <c r="B72" s="6"/>
     </row>
     <row r="73" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>2016</v>
       </c>
-      <c r="B73" s="8">
-        <v>15192.061</v>
-      </c>
+      <c r="B73" s="6"/>
     </row>
     <row r="74" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>2017</v>
       </c>
-      <c r="B74" s="8">
-        <v>15696.879000000001</v>
-      </c>
+      <c r="B74" s="6"/>
     </row>
     <row r="75" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <v>2018</v>
       </c>
-      <c r="B75" s="8">
-        <v>16462.59</v>
-      </c>
+      <c r="B75" s="6"/>
     </row>
     <row r="76" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>2019</v>
       </c>
-      <c r="B76" s="8">
-        <v>17206.73</v>
-      </c>
+      <c r="B76" s="6"/>
     </row>
     <row r="77" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
         <v>2020</v>
       </c>
-      <c r="B77" s="8"/>
+      <c r="B77" s="6"/>
     </row>
     <row r="78" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
+      <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -3751,6 +4549,7 @@
     </row>
     <row r="79" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
+      <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -3809,6 +4608,7 @@
     </row>
     <row r="80" spans="1:57" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
+      <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -3989,11 +4789,877 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984B49BA-6D54-42C1-84EE-7F8663080B50}">
+  <dimension ref="A1:BC88"/>
+  <sheetViews>
+    <sheetView zoomScale="92" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="10.7109375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1945</v>
+      </c>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1946</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1948</v>
+      </c>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>1949</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>1951</v>
+      </c>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>1952</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>1953</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>1954</v>
+      </c>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>1955</v>
+      </c>
+      <c r="B12" s="29">
+        <f>0.02*B27</f>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>1956</v>
+      </c>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1959</v>
+      </c>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>1960</v>
+      </c>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>1961</v>
+      </c>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>1962</v>
+      </c>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>1963</v>
+      </c>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>1964</v>
+      </c>
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>1965</v>
+      </c>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>1966</v>
+      </c>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>1967</v>
+      </c>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>1968</v>
+      </c>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>1969</v>
+      </c>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>1970</v>
+      </c>
+      <c r="B27" s="8">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>1971</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>1972</v>
+      </c>
+      <c r="B29" s="8">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>1973</v>
+      </c>
+      <c r="B30" s="8">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>1974</v>
+      </c>
+      <c r="B31" s="8">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>1975</v>
+      </c>
+      <c r="B32" s="8">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>1976</v>
+      </c>
+      <c r="B33" s="8">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>1977</v>
+      </c>
+      <c r="B34" s="8">
+        <v>4807</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>1978</v>
+      </c>
+      <c r="B35" s="8">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>1979</v>
+      </c>
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>1980</v>
+      </c>
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>1981</v>
+      </c>
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>1982</v>
+      </c>
+      <c r="B39" s="7">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>1983</v>
+      </c>
+      <c r="B40" s="7">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>1984</v>
+      </c>
+      <c r="B41" s="7">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>1985</v>
+      </c>
+      <c r="B42" s="7">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>1986</v>
+      </c>
+      <c r="B43" s="7">
+        <v>5072</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>1987</v>
+      </c>
+      <c r="B44" s="7">
+        <v>6019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>1988</v>
+      </c>
+      <c r="B45" s="7">
+        <v>6660</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>1989</v>
+      </c>
+      <c r="B46" s="7">
+        <v>6760</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>1990</v>
+      </c>
+      <c r="B47" s="7">
+        <v>7062</v>
+      </c>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>1991</v>
+      </c>
+      <c r="B48" s="7">
+        <v>8047</v>
+      </c>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>1992</v>
+      </c>
+      <c r="B49" s="7">
+        <v>7945</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>1993</v>
+      </c>
+      <c r="B50" s="7">
+        <v>8091</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>1994</v>
+      </c>
+      <c r="B51" s="7">
+        <v>8998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>1995</v>
+      </c>
+      <c r="B52" s="7">
+        <v>9563</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>1996</v>
+      </c>
+      <c r="B53" s="7">
+        <v>9768</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>1997</v>
+      </c>
+      <c r="B54" s="8">
+        <v>10243</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>1998</v>
+      </c>
+      <c r="B55" s="8">
+        <v>10926</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>1999</v>
+      </c>
+      <c r="B56" s="8">
+        <v>12257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>2000</v>
+      </c>
+      <c r="B57" s="8">
+        <v>13383</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>2001</v>
+      </c>
+      <c r="B58" s="8">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>2002</v>
+      </c>
+      <c r="B59" s="8">
+        <v>14281</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>2003</v>
+      </c>
+      <c r="B60" s="8">
+        <v>14465</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>2004</v>
+      </c>
+      <c r="B61" s="8">
+        <v>15296</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>2005</v>
+      </c>
+      <c r="B62" s="8">
+        <v>15318.19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>2006</v>
+      </c>
+      <c r="B63" s="8">
+        <v>16158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>2007</v>
+      </c>
+      <c r="B64" s="8">
+        <v>16730</v>
+      </c>
+    </row>
+    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B65" s="8">
+        <v>16382.708000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B66" s="8">
+        <v>15460.977999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B67" s="8">
+        <v>16209.016</v>
+      </c>
+    </row>
+    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B68" s="8">
+        <v>16997.707999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B69" s="8">
+        <v>16424.399000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B70" s="8">
+        <v>15763.493</v>
+      </c>
+    </row>
+    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B71" s="8">
+        <v>15000.332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B72" s="8">
+        <v>15062.705</v>
+      </c>
+    </row>
+    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B73" s="8">
+        <v>15192.061</v>
+      </c>
+    </row>
+    <row r="74" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B74" s="8">
+        <v>15696.879000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B75" s="8">
+        <v>16462.59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B76" s="8">
+        <v>17206.73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B77" s="8"/>
+    </row>
+    <row r="78" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6"/>
+      <c r="AA78" s="6"/>
+      <c r="AB78" s="6"/>
+      <c r="AC78" s="6"/>
+      <c r="AD78" s="6"/>
+      <c r="AE78" s="6"/>
+      <c r="AF78" s="6"/>
+      <c r="AG78" s="6"/>
+      <c r="AH78" s="6"/>
+      <c r="AI78" s="6"/>
+      <c r="AJ78" s="6"/>
+      <c r="AK78" s="6"/>
+      <c r="AL78" s="6"/>
+      <c r="AM78" s="6"/>
+      <c r="AN78" s="6"/>
+      <c r="AO78" s="6"/>
+      <c r="AP78" s="6"/>
+      <c r="AQ78" s="6"/>
+      <c r="AR78" s="6"/>
+      <c r="AS78" s="6"/>
+      <c r="AT78" s="6"/>
+      <c r="AU78" s="6"/>
+      <c r="AV78" s="6"/>
+      <c r="AW78" s="6"/>
+      <c r="AX78" s="6"/>
+      <c r="AY78" s="6"/>
+      <c r="AZ78" s="6"/>
+      <c r="BA78" s="6"/>
+      <c r="BB78" s="6"/>
+      <c r="BC78" s="6"/>
+    </row>
+    <row r="79" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="6"/>
+      <c r="AB79" s="6"/>
+      <c r="AC79" s="6"/>
+      <c r="AD79" s="6"/>
+      <c r="AE79" s="6"/>
+      <c r="AF79" s="6"/>
+      <c r="AG79" s="6"/>
+      <c r="AH79" s="6"/>
+      <c r="AI79" s="6"/>
+      <c r="AJ79" s="6"/>
+      <c r="AK79" s="6"/>
+      <c r="AL79" s="6"/>
+      <c r="AM79" s="6"/>
+      <c r="AN79" s="6"/>
+      <c r="AO79" s="6"/>
+      <c r="AP79" s="6"/>
+      <c r="AQ79" s="6"/>
+      <c r="AR79" s="6"/>
+      <c r="AS79" s="6"/>
+      <c r="AT79" s="6"/>
+      <c r="AU79" s="6"/>
+      <c r="AV79" s="6"/>
+      <c r="AW79" s="6"/>
+      <c r="AX79" s="6"/>
+      <c r="AY79" s="6"/>
+      <c r="AZ79" s="6"/>
+      <c r="BA79" s="6"/>
+      <c r="BB79" s="6"/>
+      <c r="BC79" s="6"/>
+    </row>
+    <row r="80" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="6"/>
+      <c r="AA80" s="6"/>
+      <c r="AB80" s="6"/>
+      <c r="AC80" s="6"/>
+      <c r="AD80" s="6"/>
+      <c r="AE80" s="6"/>
+      <c r="AF80" s="6"/>
+      <c r="AG80" s="6"/>
+      <c r="AH80" s="6"/>
+      <c r="AI80" s="6"/>
+      <c r="AJ80" s="6"/>
+      <c r="AK80" s="6"/>
+      <c r="AL80" s="6"/>
+      <c r="AM80" s="6"/>
+      <c r="AN80" s="6"/>
+      <c r="AO80" s="6"/>
+      <c r="AP80" s="6"/>
+      <c r="AQ80" s="6"/>
+      <c r="AR80" s="6"/>
+      <c r="AS80" s="6"/>
+      <c r="AT80" s="6"/>
+      <c r="AU80" s="6"/>
+      <c r="AV80" s="6"/>
+      <c r="AW80" s="6"/>
+      <c r="AX80" s="6"/>
+      <c r="AY80" s="6"/>
+      <c r="AZ80" s="6"/>
+      <c r="BA80" s="6"/>
+      <c r="BB80" s="6"/>
+      <c r="BC80" s="6"/>
+    </row>
+    <row r="87" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="6"/>
+      <c r="AB87" s="6"/>
+      <c r="AC87" s="6"/>
+      <c r="AD87" s="6"/>
+      <c r="AE87" s="6"/>
+      <c r="AF87" s="6"/>
+      <c r="AG87" s="6"/>
+      <c r="AH87" s="6"/>
+      <c r="AI87" s="6"/>
+      <c r="AJ87" s="6"/>
+      <c r="AK87" s="6"/>
+      <c r="AL87" s="6"/>
+      <c r="AM87" s="6"/>
+      <c r="AN87" s="6"/>
+      <c r="AO87" s="6"/>
+      <c r="AP87" s="6"/>
+      <c r="AQ87" s="6"/>
+      <c r="AR87" s="6"/>
+      <c r="AS87" s="6"/>
+      <c r="AT87" s="6"/>
+      <c r="AU87" s="6"/>
+      <c r="AV87" s="6"/>
+      <c r="AW87" s="6"/>
+      <c r="AX87" s="6"/>
+      <c r="AY87" s="6"/>
+      <c r="AZ87" s="6"/>
+      <c r="BA87" s="6"/>
+      <c r="BB87" s="6"/>
+      <c r="BC87" s="6"/>
+    </row>
+    <row r="88" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="6"/>
+      <c r="AA88" s="6"/>
+      <c r="AB88" s="6"/>
+      <c r="AC88" s="6"/>
+      <c r="AD88" s="6"/>
+      <c r="AE88" s="6"/>
+      <c r="AF88" s="6"/>
+      <c r="AG88" s="6"/>
+      <c r="AH88" s="6"/>
+      <c r="AI88" s="6"/>
+      <c r="AJ88" s="6"/>
+      <c r="AK88" s="6"/>
+      <c r="AL88" s="6"/>
+      <c r="AM88" s="6"/>
+      <c r="AN88" s="6"/>
+      <c r="AO88" s="6"/>
+      <c r="AP88" s="6"/>
+      <c r="AQ88" s="6"/>
+      <c r="AR88" s="6"/>
+      <c r="AS88" s="6"/>
+      <c r="AT88" s="6"/>
+      <c r="AU88" s="6"/>
+      <c r="AV88" s="6"/>
+      <c r="AW88" s="6"/>
+      <c r="AX88" s="6"/>
+      <c r="AY88" s="6"/>
+      <c r="AZ88" s="6"/>
+      <c r="BA88" s="6"/>
+      <c r="BB88" s="6"/>
+      <c r="BC88" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B1BC36-79CC-403E-BDAB-F4ACF4DC04E2}">
   <dimension ref="A1:BN88"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C33" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4848,15 +6514,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2629125-5F59-4D2B-B790-D44D45AA199C}">
   <dimension ref="A1:BL88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5118,7 +6784,7 @@
         <v>509.33333333333331</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>1992</v>
       </c>
@@ -5126,7 +6792,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>1993</v>
       </c>
@@ -5134,114 +6800,127 @@
         <v>614.66666666666663</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>1994</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>1995</v>
       </c>
       <c r="B52" s="8">
         <v>685.298</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D52" s="57"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>1996</v>
       </c>
       <c r="B53" s="8">
         <v>765.65300000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D53" s="57"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>1997</v>
       </c>
       <c r="B54" s="8">
         <v>654.58600000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D54" s="57"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>1998</v>
       </c>
       <c r="B55" s="8">
         <v>469.65499999999997</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D55" s="57"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>1999</v>
       </c>
       <c r="B56" s="8">
         <v>281.13200000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D56" s="57"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>2000</v>
       </c>
       <c r="B57" s="8">
         <v>268.596</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D57" s="57"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>2001</v>
       </c>
       <c r="B58" s="8">
         <v>169.071</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D58" s="57"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>2002</v>
       </c>
       <c r="B59" s="8">
         <v>284.79199999999997</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D59" s="57"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>2003</v>
       </c>
       <c r="B60" s="8">
         <v>317.03800000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D60" s="57"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>2004</v>
       </c>
       <c r="B61" s="8">
         <v>320.613</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D61" s="57"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>2005</v>
       </c>
       <c r="B62" s="8">
         <v>459.02699999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D62" s="57"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>2006</v>
       </c>
       <c r="B63" s="8">
         <v>497.476</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D63" s="57"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>2007</v>
       </c>
       <c r="B64" s="8">
         <v>459.43</v>
       </c>
+      <c r="D64" s="57"/>
     </row>
     <row r="65" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
@@ -5250,6 +6929,7 @@
       <c r="B65" s="8">
         <v>482.06700000000001</v>
       </c>
+      <c r="D65" s="57"/>
     </row>
     <row r="66" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
@@ -5258,6 +6938,7 @@
       <c r="B66" s="8">
         <v>415.94900000000001</v>
       </c>
+      <c r="D66" s="57"/>
     </row>
     <row r="67" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
@@ -5266,6 +6947,7 @@
       <c r="B67" s="8">
         <v>492.572</v>
       </c>
+      <c r="D67" s="57"/>
     </row>
     <row r="68" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
@@ -5274,6 +6956,7 @@
       <c r="B68" s="8">
         <v>405.72899999999998</v>
       </c>
+      <c r="D68" s="57"/>
     </row>
     <row r="69" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
@@ -5282,6 +6965,7 @@
       <c r="B69" s="8">
         <v>429.05399999999997</v>
       </c>
+      <c r="D69" s="57"/>
     </row>
     <row r="70" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
@@ -5290,6 +6974,7 @@
       <c r="B70" s="8">
         <v>462.90199999999999</v>
       </c>
+      <c r="D70" s="57"/>
     </row>
     <row r="71" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
@@ -5298,6 +6983,7 @@
       <c r="B71" s="8">
         <v>498.60500000000002</v>
       </c>
+      <c r="D71" s="57"/>
     </row>
     <row r="72" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
@@ -5306,6 +6992,7 @@
       <c r="B72" s="8">
         <v>476.73</v>
       </c>
+      <c r="D72" s="57"/>
     </row>
     <row r="73" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
@@ -5314,6 +7001,7 @@
       <c r="B73" s="8">
         <v>507.42700000000002</v>
       </c>
+      <c r="D73" s="57"/>
     </row>
     <row r="74" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
@@ -5322,6 +7010,7 @@
       <c r="B74" s="8">
         <v>630.41999999999996</v>
       </c>
+      <c r="D74" s="57"/>
     </row>
     <row r="75" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
@@ -5330,6 +7019,7 @@
       <c r="B75" s="8">
         <v>651.88099999999997</v>
       </c>
+      <c r="D75" s="57"/>
     </row>
     <row r="76" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
@@ -5338,6 +7028,7 @@
       <c r="B76" s="8">
         <v>820.09100000000001</v>
       </c>
+      <c r="D76" s="57"/>
     </row>
     <row r="77" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
@@ -5673,7 +7364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6548A2BA-3FC0-4741-B7C4-68BAB960C857}">
   <dimension ref="A1:F77"/>
   <sheetViews>
@@ -6338,15 +8029,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA66E015-E034-4B1D-981D-EB5D673F3774}">
   <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="R78" sqref="R78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6375,14 +8066,15 @@
         <v>1946</v>
       </c>
       <c r="B3" s="8">
-        <f>2*5</f>
-        <v>10</v>
+        <f>AVERAGE(2*3, 2*5.5)</f>
+        <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1947</v>
       </c>
+      <c r="B4" s="54"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -6400,6 +8092,7 @@
       <c r="A7" s="10">
         <v>1950</v>
       </c>
+      <c r="B7" s="54"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -6417,10 +8110,7 @@
       <c r="A10" s="10">
         <v>1953</v>
       </c>
-      <c r="B10" s="8">
-        <f>2*5</f>
-        <v>10</v>
-      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
@@ -6438,13 +8128,13 @@
       <c r="A13" s="10">
         <v>1956</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>1957</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -6462,7 +8152,10 @@
       <c r="A17" s="10">
         <v>1960</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="8">
+        <f>AVERAGE(2*3, 2*5.5)</f>
+        <v>8.5</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -6733,7 +8426,8 @@
         <v>2005</v>
       </c>
       <c r="B62" s="7">
-        <v>9</v>
+        <f>2*5</f>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -6764,9 +8458,7 @@
       <c r="A67" s="10">
         <v>2010</v>
       </c>
-      <c r="B67" s="7">
-        <v>9</v>
-      </c>
+      <c r="B67" s="7"/>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
@@ -6821,7 +8513,8 @@
         <v>2019</v>
       </c>
       <c r="B76" s="7">
-        <v>10</v>
+        <f>2*5.5</f>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.25">
@@ -7042,7 +8735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621D97B3-9416-45F1-8919-6CB0D3F82407}">
   <dimension ref="A1:BR88"/>
   <sheetViews>
@@ -8943,7 +10636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D689AC4E-6DA8-4485-9988-F432D0671361}">
   <dimension ref="A1:BK88"/>
   <sheetViews>
@@ -10120,793 +11813,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AADF96-AA57-46CE-950B-FAE3AC3D5FD3}">
-  <dimension ref="A1:BB88"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L41" sqref="L41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.7109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>1947</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2970</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>1950</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2950</v>
-      </c>
-      <c r="D7" s="53"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>1951</v>
-      </c>
-      <c r="D8" s="53"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>1952</v>
-      </c>
-      <c r="D9" s="53"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>1953</v>
-      </c>
-      <c r="D10" s="53"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>1954</v>
-      </c>
-      <c r="D11" s="53"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>1955</v>
-      </c>
-      <c r="D12" s="53"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>1956</v>
-      </c>
-      <c r="D13" s="53"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>1957</v>
-      </c>
-      <c r="D14" s="53"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>1958</v>
-      </c>
-      <c r="D15" s="53"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>1959</v>
-      </c>
-      <c r="D16" s="53"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>1960</v>
-      </c>
-      <c r="B17" s="53">
-        <v>2055</v>
-      </c>
-      <c r="D17" s="53"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>1961</v>
-      </c>
-      <c r="B18" s="53"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>1962</v>
-      </c>
-      <c r="B19" s="53"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>1963</v>
-      </c>
-      <c r="B20" s="53"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>1964</v>
-      </c>
-      <c r="B21" s="53"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>1965</v>
-      </c>
-      <c r="B22" s="53">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>1966</v>
-      </c>
-      <c r="B23" s="53"/>
-      <c r="Z23" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>1967</v>
-      </c>
-      <c r="B24" s="53"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>1968</v>
-      </c>
-      <c r="B25" s="53"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>1969</v>
-      </c>
-      <c r="B26" s="53"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>1970</v>
-      </c>
-      <c r="B27" s="53">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>1971</v>
-      </c>
-      <c r="B28" s="53"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>1972</v>
-      </c>
-      <c r="B29" s="53"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>1973</v>
-      </c>
-      <c r="B30" s="53"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>1974</v>
-      </c>
-      <c r="B31" s="53"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>1975</v>
-      </c>
-      <c r="B32" s="53">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
-        <v>1976</v>
-      </c>
-      <c r="B33" s="53"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
-        <v>1977</v>
-      </c>
-      <c r="B34" s="53"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
-        <v>1978</v>
-      </c>
-      <c r="B35" s="53"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <v>1979</v>
-      </c>
-      <c r="B36" s="53"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
-        <v>1980</v>
-      </c>
-      <c r="B37" s="53">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
-        <v>1981</v>
-      </c>
-      <c r="B38" s="53"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
-        <v>1982</v>
-      </c>
-      <c r="B39" s="53"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <v>1983</v>
-      </c>
-      <c r="B40" s="53"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
-        <v>1984</v>
-      </c>
-      <c r="B41" s="53"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
-        <v>1985</v>
-      </c>
-      <c r="B42" s="53">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
-        <v>1986</v>
-      </c>
-      <c r="B43" s="53"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
-        <v>1987</v>
-      </c>
-      <c r="B44" s="53"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
-        <v>1988</v>
-      </c>
-      <c r="B45" s="53"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
-        <v>1989</v>
-      </c>
-      <c r="B46" s="53"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
-        <v>1990</v>
-      </c>
-      <c r="B47" s="53">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
-        <v>1991</v>
-      </c>
-      <c r="B48" s="53"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
-        <v>1992</v>
-      </c>
-      <c r="B49" s="53"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
-        <v>1993</v>
-      </c>
-      <c r="B50" s="53"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
-        <v>1994</v>
-      </c>
-      <c r="B51" s="53"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>1995</v>
-      </c>
-      <c r="B52" s="53">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
-        <v>1996</v>
-      </c>
-      <c r="B53" s="53"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <v>1997</v>
-      </c>
-      <c r="B54" s="53"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
-        <v>1998</v>
-      </c>
-      <c r="B55" s="53"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
-        <v>1999</v>
-      </c>
-      <c r="B56" s="53"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
-        <v>2000</v>
-      </c>
-      <c r="B57" s="53">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
-        <v>2001</v>
-      </c>
-      <c r="B58" s="53"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
-        <v>2002</v>
-      </c>
-      <c r="B59" s="53"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
-        <v>2003</v>
-      </c>
-      <c r="B60" s="53"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
-        <v>2004</v>
-      </c>
-      <c r="B61" s="53"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B62" s="53">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
-        <v>2006</v>
-      </c>
-      <c r="B63" s="53"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
-        <v>2007</v>
-      </c>
-      <c r="B64" s="1">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="65" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A66" s="10">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
-        <v>2010</v>
-      </c>
-      <c r="B67" s="1">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A68" s="10">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A69" s="10">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A70" s="10">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A71" s="10">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="72" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A72" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B72" s="1">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A73" s="10">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A74" s="10">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="75" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A75" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B75" s="1">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A76" s="10">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="77" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A77" s="10">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="78" spans="1:54" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
-      <c r="AA78" s="1"/>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
-      <c r="AD78" s="1"/>
-      <c r="AE78" s="1"/>
-      <c r="AF78" s="1"/>
-      <c r="AG78" s="1"/>
-      <c r="AH78" s="1"/>
-      <c r="AI78" s="1"/>
-      <c r="AJ78" s="1"/>
-      <c r="AK78" s="1"/>
-      <c r="AL78" s="1"/>
-      <c r="AM78" s="1"/>
-      <c r="AN78" s="1"/>
-      <c r="AO78" s="1"/>
-      <c r="AP78" s="1"/>
-      <c r="AQ78" s="1"/>
-      <c r="AR78" s="1"/>
-      <c r="AS78" s="1"/>
-      <c r="AT78" s="1"/>
-      <c r="AU78" s="1"/>
-      <c r="AV78" s="1"/>
-      <c r="AW78" s="1"/>
-      <c r="AX78" s="1"/>
-      <c r="AY78" s="1"/>
-      <c r="AZ78" s="1"/>
-      <c r="BA78" s="1"/>
-      <c r="BB78" s="1"/>
-    </row>
-    <row r="79" spans="1:54" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-      <c r="Y79" s="1"/>
-      <c r="Z79" s="1"/>
-      <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
-      <c r="AE79" s="1"/>
-      <c r="AF79" s="1"/>
-      <c r="AG79" s="1"/>
-      <c r="AH79" s="1"/>
-      <c r="AI79" s="1"/>
-      <c r="AJ79" s="1"/>
-      <c r="AK79" s="1"/>
-      <c r="AL79" s="1"/>
-      <c r="AM79" s="1"/>
-      <c r="AN79" s="1"/>
-      <c r="AO79" s="1"/>
-      <c r="AP79" s="1"/>
-      <c r="AQ79" s="1"/>
-      <c r="AR79" s="1"/>
-      <c r="AS79" s="1"/>
-      <c r="AT79" s="1"/>
-      <c r="AU79" s="1"/>
-      <c r="AV79" s="1"/>
-      <c r="AW79" s="1"/>
-      <c r="AX79" s="1"/>
-      <c r="AY79" s="1"/>
-      <c r="AZ79" s="1"/>
-      <c r="BA79" s="1"/>
-      <c r="BB79" s="1"/>
-    </row>
-    <row r="80" spans="1:54" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
-      <c r="X80" s="1"/>
-      <c r="Y80" s="1"/>
-      <c r="Z80" s="1"/>
-      <c r="AA80" s="1"/>
-      <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
-      <c r="AD80" s="1"/>
-      <c r="AE80" s="1"/>
-      <c r="AF80" s="1"/>
-      <c r="AG80" s="1"/>
-      <c r="AH80" s="1"/>
-      <c r="AI80" s="1"/>
-      <c r="AJ80" s="1"/>
-      <c r="AK80" s="1"/>
-      <c r="AL80" s="1"/>
-      <c r="AM80" s="1"/>
-      <c r="AN80" s="1"/>
-      <c r="AO80" s="1"/>
-      <c r="AP80" s="1"/>
-      <c r="AQ80" s="1"/>
-      <c r="AR80" s="1"/>
-      <c r="AS80" s="1"/>
-      <c r="AT80" s="1"/>
-      <c r="AU80" s="1"/>
-      <c r="AV80" s="1"/>
-      <c r="AW80" s="1"/>
-      <c r="AX80" s="1"/>
-      <c r="AY80" s="1"/>
-      <c r="AZ80" s="1"/>
-      <c r="BA80" s="1"/>
-      <c r="BB80" s="1"/>
-    </row>
-    <row r="87" spans="1:54" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-      <c r="S87" s="1"/>
-      <c r="T87" s="1"/>
-      <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
-      <c r="W87" s="1"/>
-      <c r="X87" s="1"/>
-      <c r="Y87" s="1"/>
-      <c r="Z87" s="1"/>
-      <c r="AA87" s="1"/>
-      <c r="AB87" s="1"/>
-      <c r="AC87" s="1"/>
-      <c r="AD87" s="1"/>
-      <c r="AE87" s="1"/>
-      <c r="AF87" s="1"/>
-      <c r="AG87" s="1"/>
-      <c r="AH87" s="1"/>
-      <c r="AI87" s="1"/>
-      <c r="AJ87" s="1"/>
-      <c r="AK87" s="1"/>
-      <c r="AL87" s="1"/>
-      <c r="AM87" s="1"/>
-      <c r="AN87" s="1"/>
-      <c r="AO87" s="1"/>
-      <c r="AP87" s="1"/>
-      <c r="AQ87" s="1"/>
-      <c r="AR87" s="1"/>
-      <c r="AS87" s="1"/>
-      <c r="AT87" s="1"/>
-      <c r="AU87" s="1"/>
-      <c r="AV87" s="1"/>
-      <c r="AW87" s="1"/>
-      <c r="AX87" s="1"/>
-      <c r="AY87" s="1"/>
-      <c r="AZ87" s="1"/>
-      <c r="BA87" s="1"/>
-      <c r="BB87" s="1"/>
-    </row>
-    <row r="88" spans="1:54" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-      <c r="S88" s="1"/>
-      <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
-      <c r="W88" s="1"/>
-      <c r="X88" s="1"/>
-      <c r="Y88" s="1"/>
-      <c r="Z88" s="1"/>
-      <c r="AA88" s="1"/>
-      <c r="AB88" s="1"/>
-      <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
-      <c r="AE88" s="1"/>
-      <c r="AF88" s="1"/>
-      <c r="AG88" s="1"/>
-      <c r="AH88" s="1"/>
-      <c r="AI88" s="1"/>
-      <c r="AJ88" s="1"/>
-      <c r="AK88" s="1"/>
-      <c r="AL88" s="1"/>
-      <c r="AM88" s="1"/>
-      <c r="AN88" s="1"/>
-      <c r="AO88" s="1"/>
-      <c r="AP88" s="1"/>
-      <c r="AQ88" s="1"/>
-      <c r="AR88" s="1"/>
-      <c r="AS88" s="1"/>
-      <c r="AT88" s="1"/>
-      <c r="AU88" s="1"/>
-      <c r="AV88" s="1"/>
-      <c r="AW88" s="1"/>
-      <c r="AX88" s="1"/>
-      <c r="AY88" s="1"/>
-      <c r="AZ88" s="1"/>
-      <c r="BA88" s="1"/>
-      <c r="BB88" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/RawData/FR_IGU_RawData_VPython.xlsx
+++ b/RawData/FR_IGU_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\02_MFA_IGU\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DE5AD8-7C91-4A89-A2D8-1FDC747CA4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF20DA5-6070-4ED2-961D-8C9D5D6C75D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="600" windowWidth="16665" windowHeight="15600" tabRatio="681" activeTab="1" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="1170" yWindow="600" windowWidth="16665" windowHeight="15600" tabRatio="681" activeTab="1" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="26" r:id="rId1"/>
@@ -101,19 +101,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">The glass industry in the European Economic Community, Commission of the European Communities, 1984, (p. 122) </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{DED8F149-B644-4126-90A5-1677C2BDDB83}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Annuaire statistique de la France, 1987, Institut National de la Statistique et des Études Économiques, Paris, 1988. p. 591</t>
         </r>
       </text>
     </comment>
@@ -870,7 +857,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{8A6BEC0E-BB01-4AC3-8379-7011B4A3D05B}">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{AAAAD610-B762-4636-9678-C8E84DF5F8EE}">
       <text>
         <r>
           <rPr>
@@ -893,11 +880,9 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(Hestin et al., 2016)
-2% = triple glazing
-98% = double glazing
-80% = Residential
-20% = Non-residential</t>
+          <t>(Leysens, 2010)
+(Hestin et al., 2016)
+(Institut für Fenstertechnik, 2015)</t>
         </r>
       </text>
     </comment>
@@ -1349,13 +1334,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1483,7 +1469,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1657,6 +1643,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3979,7 +3968,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4252,9 +4241,7 @@
       <c r="A39" s="10">
         <v>1982</v>
       </c>
-      <c r="B39" s="7">
-        <v>7500</v>
-      </c>
+      <c r="B39" s="6"/>
       <c r="D39" s="58"/>
       <c r="E39" s="58"/>
     </row>
@@ -8034,10 +8021,10 @@
   <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R78" sqref="R78"/>
+      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8066,8 +8053,8 @@
         <v>1946</v>
       </c>
       <c r="B3" s="8">
-        <f>AVERAGE(2*3, 2*5.5)</f>
-        <v>8.5</v>
+        <f>AVERAGE(2*3, 2*5)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8153,8 +8140,8 @@
         <v>1960</v>
       </c>
       <c r="B17" s="8">
-        <f>AVERAGE(2*3, 2*5.5)</f>
-        <v>8.5</v>
+        <f>AVERAGE(2*3, 2*5)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8425,9 +8412,8 @@
       <c r="A62" s="10">
         <v>2005</v>
       </c>
-      <c r="B62" s="7">
-        <f>2*5</f>
-        <v>10</v>
+      <c r="B62" s="59">
+        <v>9.5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -8513,8 +8499,7 @@
         <v>2019</v>
       </c>
       <c r="B76" s="7">
-        <f>2*5.5</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.25">

--- a/RawData/FR_IGU_RawData_VPython.xlsx
+++ b/RawData/FR_IGU_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\02_MFA_IGU\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF20DA5-6070-4ED2-961D-8C9D5D6C75D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D88CF51-C973-4FDF-BAEB-0BCD9962670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="600" windowWidth="16665" windowHeight="15600" tabRatio="681" activeTab="1" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="2685" yWindow="945" windowWidth="16665" windowHeight="15600" tabRatio="681" activeTab="6" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="26" r:id="rId1"/>
@@ -843,7 +843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{01A94CA4-C96D-42AE-8B2A-1AE34BF5F30E}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{8A7D459F-B7C9-43D3-B52C-15A893155660}">
       <text>
         <r>
           <rPr>
@@ -852,12 +852,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Average: 
-(Van de Voorde, 2016; Compagnie de Saint-Gobain, 1953)</t>
+          <t>(Piganiol, 1965)</t>
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{AAAAD610-B762-4636-9678-C8E84DF5F8EE}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{F0624BDB-9A47-480B-866A-18C46F557605}">
       <text>
         <r>
           <rPr>
@@ -866,8 +865,59 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Average: 
-(Van de Voorde, 2016; Compagnie de Saint-Gobain, 1953)</t>
+          <t>(Van de Voorde, 2016)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{27FEBEA6-1D88-471E-A611-3B6353070DDA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Compagnie de Saint-Gobain, 1953)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{669C44C6-C716-483F-B65C-CB7D60D5E7C1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Piganiol, 1965)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{B77DC8F3-B145-429A-BA40-CC7618F61090}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Van de Voorde, 2016)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{A3E5A2BB-C1B0-4628-8157-E5238FFF39FA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Compagnie de Saint-Gobain, 1953)</t>
         </r>
       </text>
     </comment>
@@ -886,7 +936,63 @@
         </r>
       </text>
     </comment>
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{A3741640-5DB1-40DA-8107-2B8ECCF95C93}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Leysens, 2010)
+(Hestin et al., 2016)
+(Institut für Fenstertechnik, 2015)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{1FAE15FA-F164-4D98-A8DA-79E7CCC0BD3A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Leysens, 2010)
+(Hestin et al., 2016)
+(Institut für Fenstertechnik, 2015)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B76" authorId="0" shapeId="0" xr:uid="{2C89ABA6-565A-47E0-A65D-8D7CD4093C93}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Private discussion with glass industries. According to them, since 2000, in France, average thickness is around 4-6mm per glass sheet)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C76" authorId="0" shapeId="0" xr:uid="{A6C7FC66-21F1-4DAD-9710-B112C67A4EC3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Private discussion with glass industries. According to them, since 2000, average thickness is around 6mm per glass sheet)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D76" authorId="0" shapeId="0" xr:uid="{739E379C-4B19-46D7-8F05-0B4A252B4869}">
       <text>
         <r>
           <rPr>
@@ -1103,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
   <si>
     <t>year</t>
   </si>
@@ -1328,6 +1434,12 @@
   </si>
   <si>
     <t>(Compagnie de Saint-Gobain, 1953)</t>
+  </si>
+  <si>
+    <t>min. thickness, mm</t>
+  </si>
+  <si>
+    <t>max. thickness, mm</t>
   </si>
 </sst>
 </file>
@@ -3964,8 +4076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3E1651-4168-4386-B54D-E57E707E6AF2}">
   <dimension ref="A1:BE88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="92" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
@@ -8020,486 +8132,659 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA66E015-E034-4B1D-981D-EB5D673F3774}">
   <dimension ref="A1:AN88"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
+      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="9" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="10.7109375" style="6"/>
+    <col min="3" max="4" width="22.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1945</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1946</v>
       </c>
-      <c r="B3" s="8">
-        <f>AVERAGE(2*3, 2*5)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1947</v>
       </c>
-      <c r="B4" s="54"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <f>2*4</f>
+        <v>8</v>
+      </c>
+      <c r="C4" s="8">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="D4" s="8">
+        <f>2*5.5</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1948</v>
       </c>
       <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>1949</v>
       </c>
       <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>1950</v>
       </c>
       <c r="B7" s="54"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>1951</v>
       </c>
       <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>1952</v>
       </c>
       <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>1953</v>
       </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>1954</v>
       </c>
       <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>1955</v>
       </c>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <f>2*4</f>
+        <v>8</v>
+      </c>
+      <c r="C12" s="8">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="D12" s="8">
+        <f>2*5.5</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>1956</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>1957</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>1958</v>
       </c>
       <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>1959</v>
       </c>
       <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>1960</v>
       </c>
-      <c r="B17" s="8">
-        <f>AVERAGE(2*3, 2*5)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>1961</v>
       </c>
       <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>1962</v>
       </c>
       <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>1963</v>
       </c>
       <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>1964</v>
       </c>
       <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>1965</v>
       </c>
       <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>1966</v>
       </c>
       <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>1967</v>
       </c>
       <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>1968</v>
       </c>
       <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>1969</v>
       </c>
       <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>1970</v>
       </c>
       <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>1971</v>
       </c>
       <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>1972</v>
       </c>
       <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>1973</v>
       </c>
       <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>1974</v>
       </c>
       <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>1975</v>
       </c>
       <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>1976</v>
       </c>
       <c r="B33" s="7"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>1977</v>
       </c>
       <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>1978</v>
       </c>
       <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>1979</v>
       </c>
       <c r="B36" s="8"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>1980</v>
       </c>
       <c r="B37" s="8"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>1981</v>
       </c>
       <c r="B38" s="8"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>1982</v>
       </c>
       <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>1983</v>
       </c>
       <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>1984</v>
       </c>
       <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>1985</v>
       </c>
       <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>1986</v>
       </c>
       <c r="B43" s="7"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>1987</v>
       </c>
       <c r="B44" s="7"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>1988</v>
       </c>
       <c r="B45" s="7"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>1989</v>
       </c>
       <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>1990</v>
       </c>
       <c r="B47" s="7"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>1991</v>
       </c>
       <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>1992</v>
       </c>
       <c r="B49" s="7"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>1993</v>
       </c>
       <c r="B50" s="7"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>1994</v>
       </c>
       <c r="B51" s="7"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>1995</v>
       </c>
       <c r="B52" s="7"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>1996</v>
       </c>
       <c r="B53" s="7"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>1997</v>
       </c>
       <c r="B54" s="7"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>1998</v>
       </c>
       <c r="B55" s="7"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>1999</v>
       </c>
       <c r="B56" s="7"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>2000</v>
       </c>
       <c r="B57" s="7"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>2001</v>
       </c>
       <c r="B58" s="7"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>2002</v>
       </c>
       <c r="B59" s="7"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>2003</v>
       </c>
       <c r="B60" s="7"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>2004</v>
       </c>
       <c r="B61" s="7"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>2005</v>
       </c>
       <c r="B62" s="59">
+        <f>AVERAGE(C62:D62)</f>
         <v>9.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="7">
+        <f>2*4</f>
+        <v>8</v>
+      </c>
+      <c r="D62" s="7">
+        <f>2*5.5</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>2006</v>
       </c>
       <c r="B63" s="7"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>2007</v>
       </c>
       <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>2008</v>
       </c>
       <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>2009</v>
       </c>
       <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>2010</v>
       </c>
       <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>2011</v>
       </c>
       <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>2012</v>
       </c>
       <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>2013</v>
       </c>
       <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>2014</v>
       </c>
       <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>2015</v>
       </c>
       <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>2016</v>
       </c>
       <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>2017</v>
       </c>
       <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <v>2018</v>
       </c>
       <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>2019</v>
       </c>
       <c r="B76" s="7">
+        <f>2*5</f>
         <v>10</v>
+      </c>
+      <c r="C76" s="7">
+        <f>2*4</f>
+        <v>8</v>
+      </c>
+      <c r="D76" s="7">
+        <f>2*6</f>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.25">
@@ -8507,11 +8792,13 @@
         <v>2020</v>
       </c>
       <c r="B77" s="8"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -8551,8 +8838,8 @@
     </row>
     <row r="79" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
@@ -8592,8 +8879,8 @@
     </row>
     <row r="80" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
@@ -8633,8 +8920,8 @@
     </row>
     <row r="87" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -8674,8 +8961,8 @@
     </row>
     <row r="88" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
